--- a/src/test/resources/Assignment.xlsx
+++ b/src/test/resources/Assignment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhn\Downloads\AUTOMATION testing\linhnt2_Framework\Asssignment_automation_course\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C69FE3D6-9649-43BB-A448-D8C31069AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A7DDEA-B40C-4AC8-B27C-08E38229CF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{67A1586D-7BAE-4CAC-82BF-2C71885AB24D}"/>
   </bookViews>
@@ -84,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +92,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,9 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3949CA-7FE2-409E-B46C-736CA16ED0FD}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -424,85 +438,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>123456</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>123456</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
